--- a/Banco Central/Economía Internacional/Sector Financiero/Tasa Prime - dólar 1995 - Diaria.xlsx
+++ b/Banco Central/Economía Internacional/Sector Financiero/Tasa Prime - dólar 1995 - Diaria.xlsx
@@ -377,22 +377,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
